--- a/output/tables/table_II_position_changes.xlsx
+++ b/output/tables/table_II_position_changes.xlsx
@@ -477,19 +477,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1443181706535294</v>
+        <v>-0.0531860494497065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008587072643192323</v>
+        <v>0.0829068222087318</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.80644576448789</v>
+        <v>-0.641515957707337</v>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.5221473962857126</v>
       </c>
     </row>
     <row r="3">
@@ -499,19 +499,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5968931583195537</v>
+        <v>-50.49350704776842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2763155895574393</v>
+        <v>2.093921546528046</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.160186326350849</v>
+        <v>-24.11432612243389</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03106614975263011</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1567683606729778</v>
+        <v>-0.0855374527466751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009349719689317111</v>
+        <v>0.1007886839465829</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.76717226636212</v>
+        <v>-0.8486811157491571</v>
       </c>
       <c r="E2" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3973933236468343</v>
       </c>
     </row>
     <row r="3">
@@ -594,19 +594,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3231958178222257</v>
+        <v>-20.82370311176356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2123905194935055</v>
+        <v>2.352283549534249</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.521705481925282</v>
+        <v>-8.852548033967524</v>
       </c>
       <c r="E3" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1284939633709912</v>
+        <v>1.998401444325282e-15</v>
       </c>
     </row>
     <row r="4">
@@ -616,16 +616,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1544872679782927</v>
+        <v>0.2692901665793556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01195925647516138</v>
+        <v>0.02745412304308132</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.91779871927265</v>
+        <v>9.808733142077873</v>
       </c>
       <c r="E4" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -689,19 +689,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.150012289547991</v>
+        <v>0.03574618646965204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008300605477300597</v>
+        <v>0.08025969796917398</v>
       </c>
       <c r="D2" t="n">
-        <v>18.07245145649011</v>
+        <v>0.4453815224096829</v>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.6566735895442888</v>
       </c>
     </row>
     <row r="3">
@@ -711,19 +711,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4539643187895602</v>
+        <v>45.45958335228796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2679981110939335</v>
+        <v>1.937655172105438</v>
       </c>
       <c r="D3" t="n">
-        <v>1.693908650835399</v>
+        <v>23.46113178790837</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09068705391895149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1646672742986164</v>
+        <v>0.0737554525108445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008987966402710148</v>
+        <v>0.08747660035031093</v>
       </c>
       <c r="D2" t="n">
-        <v>18.32086001667342</v>
+        <v>0.8431449349366757</v>
       </c>
       <c r="E2" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4004722324253618</v>
       </c>
     </row>
     <row r="3">
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3545561412247338</v>
+        <v>21.66506121882914</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2058664926879286</v>
+        <v>2.166666766211149</v>
       </c>
       <c r="D3" t="n">
-        <v>1.72226250418616</v>
+        <v>9.999258564672983</v>
       </c>
       <c r="E3" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08542406346127596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1699983560931923</v>
+        <v>0.2666053310152876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01357847210523263</v>
+        <v>0.02647172287359602</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.51969697147895</v>
+        <v>10.07132525103648</v>
       </c>
       <c r="E4" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.93968100317266</v>
+        <v>116.9420767573182</v>
       </c>
       <c r="C2" t="n">
-        <v>46.13725621054821</v>
+        <v>63.11717193845401</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3671583963699123</v>
+        <v>1.852777511504306</v>
       </c>
       <c r="E2" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7136017521069482</v>
+        <v>0.06584066476085981</v>
       </c>
     </row>
     <row r="3">
@@ -923,19 +923,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16203.6162951062</v>
+        <v>8496.266580538328</v>
       </c>
       <c r="C3" t="n">
-        <v>1942.590032764076</v>
+        <v>1504.180878541177</v>
       </c>
       <c r="D3" t="n">
-        <v>8.341243402783428</v>
+        <v>5.648434109053687</v>
       </c>
       <c r="E3" t="n">
-        <v>771</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.678001900934817e-08</v>
       </c>
     </row>
   </sheetData>
@@ -996,19 +996,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-25.83629491782501</v>
+        <v>45.60298986156722</v>
       </c>
       <c r="C2" t="n">
-        <v>46.09207348771306</v>
+        <v>70.26136451625703</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5605366164469102</v>
+        <v>0.6490478825103893</v>
       </c>
       <c r="E2" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5752767383732924</v>
+        <v>0.5172869087663226</v>
       </c>
     </row>
     <row r="3">
@@ -1018,19 +1018,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3325.12270153082</v>
+        <v>3095.827677849454</v>
       </c>
       <c r="C3" t="n">
-        <v>2105.240032024937</v>
+        <v>1536.12248089288</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.579450633157746</v>
+        <v>2.015352106591127</v>
       </c>
       <c r="E3" t="n">
-        <v>770</v>
+        <v>153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146439489273925</v>
+        <v>0.04563028008729497</v>
       </c>
     </row>
   </sheetData>
